--- a/client/weather.xlsx
+++ b/client/weather.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="89">
   <si>
     <t>date</t>
   </si>
@@ -131,6 +131,153 @@
   </si>
   <si>
     <t>51.5033640, -0.1294406</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294407</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294408</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294409</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294410</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294411</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294412</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294413</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294414</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294415</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294416</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294417</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294418</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294419</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294420</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294421</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294422</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294423</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294424</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294425</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294426</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294427</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294428</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294429</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294430</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294431</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294432</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294433</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294434</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294435</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294436</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294437</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294438</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294439</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294440</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294441</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294442</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294443</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294444</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294445</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294446</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294447</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294448</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294449</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294450</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294451</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294452</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294453</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294454</t>
+  </si>
+  <si>
+    <t>51.5033640, -0.1294455</t>
   </si>
 </sst>
 </file>
@@ -772,7 +919,7 @@
         <v>39451.0</v>
       </c>
       <c r="B25" s="3">
-        <v>1.375</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>38</v>
@@ -781,13 +928,13 @@
         <v>100.0</v>
       </c>
       <c r="E25" s="1">
-        <v>10.0</v>
+        <v>5.23076923076926</v>
       </c>
       <c r="F25" s="1">
-        <v>45.0</v>
+        <v>41.065934065934</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -795,7 +942,7 @@
         <v>39452.0</v>
       </c>
       <c r="B26" s="3">
-        <v>1.4166666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>39</v>
@@ -804,13 +951,1140 @@
         <v>100.0</v>
       </c>
       <c r="E26" s="1">
-        <v>10.0</v>
+        <v>3.71868131868135</v>
       </c>
       <c r="F26" s="1">
-        <v>45.0</v>
+        <v>40.0461538461538</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>39453.0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.20659340659344</v>
+      </c>
+      <c r="F27" s="1">
+        <v>39.0263736263736</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>39454.0</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.694505494505528</v>
+      </c>
+      <c r="F28" s="1">
+        <v>38.0065934065934</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>39455.0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>-0.817582417582383</v>
+      </c>
+      <c r="F29" s="1">
+        <v>36.9868131868131</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>39456.0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-2.32967032967029</v>
+      </c>
+      <c r="F30" s="1">
+        <v>35.9670329670329</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>39457.0</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-3.8417582417582</v>
+      </c>
+      <c r="F31" s="1">
+        <v>34.9472527472527</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2">
+        <v>39458.0</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-5.35384615384611</v>
+      </c>
+      <c r="F32" s="1">
+        <v>33.9274725274725</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>39459.0</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-6.86593406593402</v>
+      </c>
+      <c r="F33" s="1">
+        <v>32.9076923076923</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2">
+        <v>39460.0</v>
+      </c>
+      <c r="B34" s="3">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-8.37802197802193</v>
+      </c>
+      <c r="F34" s="1">
+        <v>31.887912087912</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>39461.0</v>
+      </c>
+      <c r="B35" s="3">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>-9.89010989010984</v>
+      </c>
+      <c r="F35" s="1">
+        <v>30.8681318681318</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2">
+        <v>39462.0</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>-11.4021978021978</v>
+      </c>
+      <c r="F36" s="1">
+        <v>29.8483516483516</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>39463.0</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>-12.9142857142857</v>
+      </c>
+      <c r="F37" s="1">
+        <v>28.8285714285714</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2">
+        <v>39464.0</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>-14.4263736263736</v>
+      </c>
+      <c r="F38" s="1">
+        <v>27.8087912087912</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>39465.0</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>-15.9384615384615</v>
+      </c>
+      <c r="F39" s="1">
+        <v>26.7890109890109</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2">
+        <v>39466.0</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-17.4505494505494</v>
+      </c>
+      <c r="F40" s="1">
+        <v>25.7692307692307</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>39467.0</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>-18.9626373626373</v>
+      </c>
+      <c r="F41" s="1">
+        <v>24.7494505494505</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2">
+        <v>39468.0</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>-20.4747252747252</v>
+      </c>
+      <c r="F42" s="1">
+        <v>23.7296703296703</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>39469.0</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-21.9868131868131</v>
+      </c>
+      <c r="F43" s="1">
+        <v>22.7098901098901</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2">
+        <v>39470.0</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D44" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>-23.498901098901</v>
+      </c>
+      <c r="F44" s="1">
+        <v>21.6901098901098</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>39471.0</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>-25.0109890109889</v>
+      </c>
+      <c r="F45" s="1">
+        <v>20.6703296703296</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2">
+        <v>39472.0</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>-26.5230769230768</v>
+      </c>
+      <c r="F46" s="1">
+        <v>19.6505494505494</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>39473.0</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>-28.0351648351648</v>
+      </c>
+      <c r="F47" s="1">
+        <v>18.6307692307692</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2">
+        <v>39474.0</v>
+      </c>
+      <c r="B48" s="3">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>-29.5472527472527</v>
+      </c>
+      <c r="F48" s="1">
+        <v>17.610989010989</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>39475.0</v>
+      </c>
+      <c r="B49" s="3">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>-31.0593406593406</v>
+      </c>
+      <c r="F49" s="1">
+        <v>16.5912087912087</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>39476.0</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>-32.5714285714285</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15.5714285714285</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>39477.0</v>
+      </c>
+      <c r="B51" s="3">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>-34.0835164835164</v>
+      </c>
+      <c r="F51" s="1">
+        <v>14.5516483516483</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2">
+        <v>39478.0</v>
+      </c>
+      <c r="B52" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>-35.5956043956043</v>
+      </c>
+      <c r="F52" s="1">
+        <v>13.5318681318681</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>39479.0</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>-37.1076923076922</v>
+      </c>
+      <c r="F53" s="1">
+        <v>12.5120879120879</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>39480.0</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>-38.6197802197801</v>
+      </c>
+      <c r="F54" s="1">
+        <v>11.4923076923076</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>39481.0</v>
+      </c>
+      <c r="B55" s="3">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>-40.131868131868</v>
+      </c>
+      <c r="F55" s="1">
+        <v>10.4725274725274</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>39482.0</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>-41.643956043956</v>
+      </c>
+      <c r="F56" s="1">
+        <v>9.4527472527472</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>39483.0</v>
+      </c>
+      <c r="B57" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>-43.1560439560439</v>
+      </c>
+      <c r="F57" s="1">
+        <v>8.43296703296699</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>39484.0</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>-44.6681318681318</v>
+      </c>
+      <c r="F58" s="1">
+        <v>7.41318681318676</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>39485.0</v>
+      </c>
+      <c r="B59" s="3">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>-46.1802197802197</v>
+      </c>
+      <c r="F59" s="1">
+        <v>6.39340659340654</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>39486.0</v>
+      </c>
+      <c r="B60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>-47.6923076923076</v>
+      </c>
+      <c r="F60" s="1">
+        <v>5.37362637362632</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>39487.0</v>
+      </c>
+      <c r="B61" s="3">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>-49.2043956043955</v>
+      </c>
+      <c r="F61" s="1">
+        <v>4.3538461538461</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>39488.0</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D62" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>-50.7164835164834</v>
+      </c>
+      <c r="F62" s="1">
+        <v>3.33406593406588</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>39489.0</v>
+      </c>
+      <c r="B63" s="3">
+        <v>1.125</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>-52.2285714285713</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.31428571428566</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>39490.0</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>-53.7406593406592</v>
+      </c>
+      <c r="F64" s="1">
+        <v>1.29450549450544</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>39491.0</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1.2083333333333333</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>-55.2527472527471</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.27472527472522</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>39492.0</v>
+      </c>
+      <c r="B66" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>-56.764835164835</v>
+      </c>
+      <c r="F66" s="1">
+        <v>-0.745054945054996</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>39493.0</v>
+      </c>
+      <c r="B67" s="3">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>-58.276923076923</v>
+      </c>
+      <c r="F67" s="1">
+        <v>-1.76483516483522</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>39494.0</v>
+      </c>
+      <c r="B68" s="3">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>-59.7890109890109</v>
+      </c>
+      <c r="F68" s="1">
+        <v>-2.78461538461543</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>39495.0</v>
+      </c>
+      <c r="B69" s="3">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>-61.3010989010988</v>
+      </c>
+      <c r="F69" s="1">
+        <v>-3.80439560439566</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>39496.0</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>-62.8131868131867</v>
+      </c>
+      <c r="F70" s="1">
+        <v>-4.82417582417587</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>39497.0</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>-64.3252747252746</v>
+      </c>
+      <c r="F71" s="1">
+        <v>-5.8439560439561</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>39498.0</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D72" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>-65.8373626373625</v>
+      </c>
+      <c r="F72" s="1">
+        <v>-6.86373626373631</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>39499.0</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.9583333333333334</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D73" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>-67.3494505494504</v>
+      </c>
+      <c r="F73" s="1">
+        <v>-7.88351648351654</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>39500.0</v>
+      </c>
+      <c r="B74" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D74" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>-68.8615384615383</v>
+      </c>
+      <c r="F74" s="1">
+        <v>-8.90329670329676</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>39501.0</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>-70.3736263736262</v>
+      </c>
+      <c r="F75" s="1">
+        <v>-9.92307692307698</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
